--- a/docs/조이런 테스트/8.26/8.26 장휘준 테스트.xlsx
+++ b/docs/조이런 테스트/8.26/8.26 장휘준 테스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\internship-2020h2\docs\조이런 테스트\8.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F67F9E8-D9EA-4A20-884F-FC5DFB6236C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C96CFAB-D930-48F7-841C-DCF20171EAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">게임 시작시 화면 좌상단 영역에 제한시간이 표시되며 밀리초 단위로 카운트 되는가? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 시작시 화면 우상단 영역에 라이프 상태바가 표시되며, 50으로 시작하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하트를 획득하면 라이프 증가 외에도 1개당 1점씩 점수(콤보)가 늘어나는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하트 1쌍을 획득하면 1점이 추가되어 3점이 증가하고, 4쌍을 모두 획득하면 15점을 획득하게 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,39 +243,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">            검수자 :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장휘준</t>
-    </r>
+    <t xml:space="preserve">게임 시작시 화면 좌상단 영역에 제한시간이 표시되며 0.01초 단위로 카운트 되는가? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,7 +251,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Punch Animation Update 이전</t>
+    <t xml:space="preserve">            검수자 :  장휘준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,6 +259,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,6 +541,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,6 +552,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,24 +575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -892,48 +852,48 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="87.296875" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="32.796875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="27" t="s">
+      <c r="A1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -945,24 +905,26 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="25">
+        <v>44069</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -970,10 +932,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -981,10 +943,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -992,10 +954,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1003,10 +965,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1014,10 +976,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1025,10 +987,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1036,10 +998,10 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1047,10 +1009,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1064,13 +1026,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1078,10 +1040,10 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1089,10 +1051,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1100,10 +1062,10 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1111,10 +1073,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1122,10 +1084,10 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1133,10 +1095,10 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1144,10 +1106,10 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1155,10 +1117,10 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1166,10 +1128,10 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1177,10 +1139,10 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1188,10 +1150,10 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1199,10 +1161,10 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1210,32 +1172,32 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1243,10 +1205,10 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1254,10 +1216,10 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1271,13 +1233,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1285,10 +1247,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1296,10 +1258,10 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1307,10 +1269,10 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1318,10 +1280,10 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1329,10 +1291,10 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1340,10 +1302,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1351,74 +1313,74 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="5"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1426,51 +1388,40 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6" t="s">
-        <v>37</v>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="13"/>
+      <c r="B53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1479,6 +1430,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>